--- a/01_Dataset_Cleaned/NewDataset_YW.xlsx
+++ b/01_Dataset_Cleaned/NewDataset_YW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C8E85E-DDEB-D643-9982-D0645343122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E7995C-CE2D-4148-9370-E9151685F9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37340" windowHeight="21100" xr2:uid="{194B26E4-9AF2-1949-9376-FC37CDA25FB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Ni</t>
   </si>
@@ -99,12 +99,6 @@
   </si>
   <si>
     <t>Alloy ID</t>
-  </si>
-  <si>
-    <t>KW131_#1</t>
-  </si>
-  <si>
-    <t>KW131_#2</t>
   </si>
   <si>
     <t>KW131_#7</t>
@@ -270,16 +264,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,9 +302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -607,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DB58DC-3A3E-E34E-8F0B-133C9AC11E14}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,83 +637,83 @@
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -730,52 +721,52 @@
         <v>21</v>
       </c>
       <c r="B2" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>35.6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45.5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.98</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+        <v>16.5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4">
         <v>25</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <v>1</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="4">
         <v>7</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z2" s="8">
-        <v>158</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>904</v>
+      <c r="Z2" s="7">
+        <v>125</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>911</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -783,52 +774,52 @@
         <v>22</v>
       </c>
       <c r="B3" s="2">
-        <v>15.5</v>
+        <v>25.2</v>
       </c>
       <c r="C3" s="2">
-        <v>36.700000000000003</v>
+        <v>19.2</v>
       </c>
       <c r="D3" s="2">
-        <v>40.5</v>
+        <v>52.5</v>
       </c>
       <c r="E3" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4">
         <v>25</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="4">
         <v>1</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="4">
         <v>7</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z3" s="8">
-        <v>261</v>
-      </c>
-      <c r="AA3" s="9">
-        <v>916</v>
+      <c r="Z3" s="7">
+        <v>107</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>985</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -836,52 +827,52 @@
         <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>16.5</v>
+        <v>29.5</v>
       </c>
       <c r="C4" s="2">
-        <v>31</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D4" s="2">
-        <v>47.5</v>
+        <v>44.5</v>
       </c>
       <c r="E4" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+        <v>5.8</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4">
         <v>25</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>1</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="4">
         <v>7</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z4" s="8">
-        <v>125</v>
-      </c>
-      <c r="AA4" s="9">
-        <v>911</v>
+      <c r="Z4" s="7">
+        <v>128</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>995</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -889,52 +880,52 @@
         <v>24</v>
       </c>
       <c r="B5" s="2">
-        <v>25.2</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
-        <v>19.2</v>
+        <v>5.4</v>
       </c>
       <c r="D5" s="2">
-        <v>52.5</v>
+        <v>48.6</v>
       </c>
       <c r="E5" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+        <v>0.69</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4">
         <v>25</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <v>1</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="4">
         <v>7</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z5" s="8">
-        <v>107</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>985</v>
+      <c r="Z5" s="7">
+        <v>85</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -942,475 +933,369 @@
         <v>25</v>
       </c>
       <c r="B6" s="2">
-        <v>29.5</v>
+        <v>53.2</v>
       </c>
       <c r="C6" s="2">
-        <v>17.899999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="D6" s="2">
-        <v>44.5</v>
+        <v>29.65</v>
       </c>
       <c r="E6" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+        <v>4.76</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
         <v>25</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="4">
         <v>1</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="4">
         <v>7</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z6" s="8">
-        <v>128</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>995</v>
+      <c r="Z6" s="7">
+        <v>182</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>48.6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5">
+      <c r="B7" s="5">
+        <v>9.1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="D7" s="5">
+        <v>46.9</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
         <v>25</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>1</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="4">
         <v>7</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z7" s="8">
-        <v>85</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>65</v>
+      <c r="Z7" s="7">
+        <v>136</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>933</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2">
-        <v>53.2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>29.65</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4.76</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5">
+      <c r="B8" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>26.5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>30.1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4">
         <v>25</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="4">
         <v>1</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="4">
         <v>7</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z8" s="8">
-        <v>182</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>185</v>
+      <c r="Z8" s="7">
+        <v>151</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>1011</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6">
-        <v>9.1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>32.049999999999997</v>
-      </c>
-      <c r="D9" s="6">
-        <v>46.9</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5">
+      <c r="B9" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D9" s="5">
+        <v>42.9</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5">
+        <v>15.45</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4">
         <v>25</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="4">
         <v>1</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="4">
         <v>7</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z9" s="8">
-        <v>136</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>933</v>
+      <c r="Z9" s="7">
+        <v>131</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>1011</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6">
-        <v>14.8</v>
-      </c>
-      <c r="C10" s="6">
-        <v>26.5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>30.1</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="6">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5">
+      <c r="B10" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D10" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4">
         <v>25</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="4">
         <v>1</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="4">
         <v>7</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z10" s="8">
-        <v>151</v>
-      </c>
-      <c r="AA10" s="9">
-        <v>1011</v>
+      <c r="Z10" s="7">
+        <v>117</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>1028</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="6">
-        <v>15.8</v>
-      </c>
-      <c r="C11" s="6">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="D11" s="6">
-        <v>42.9</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6">
-        <v>15.45</v>
-      </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5">
+      <c r="B11" s="5">
+        <v>35.5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>55.4</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4">
         <v>25</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="4">
         <v>1</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="4">
         <v>7</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z11" s="8">
-        <v>131</v>
-      </c>
-      <c r="AA11" s="9">
-        <v>1011</v>
+      <c r="Z11" s="7">
+        <v>95</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6">
-        <v>19.8</v>
-      </c>
-      <c r="C12" s="6">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D12" s="6">
-        <v>47.5</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5">
+      <c r="B12" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D12" s="5">
+        <v>36.1</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4">
         <v>25</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="4">
         <v>1</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="4">
         <v>7</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z12" s="8">
-        <v>117</v>
-      </c>
-      <c r="AA12" s="9">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="6">
-        <v>35.5</v>
-      </c>
-      <c r="C13" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>55.4</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5">
-        <v>25</v>
-      </c>
-      <c r="W13" s="5">
-        <v>1</v>
-      </c>
-      <c r="X13" s="5">
-        <v>7</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>95</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="6">
-        <v>42.1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D14" s="6">
-        <v>36.1</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5">
-        <v>25</v>
-      </c>
-      <c r="W14" s="5">
-        <v>1</v>
-      </c>
-      <c r="X14" s="5">
-        <v>7</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="Z14" s="8">
+      <c r="Z12" s="7">
         <v>125</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA12" s="8">
         <v>138</v>
       </c>
     </row>
